--- a/biology/Botanique/Parc_Marie-Victorin/Parc_Marie-Victorin.xlsx
+++ b/biology/Botanique/Parc_Marie-Victorin/Parc_Marie-Victorin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Parc Marie-Victorin est un jardin botanique situé dans la région du Centre-du-Québec,au Québec, dans la ville de Kingsey Falls. Il a été fondé en 1985 à l'occasion du centième anniversaire de la naissance du botaniste Conrad Kirouac, mieux connu sous le nom du Frère Marie-Victorin, qui était originaire de Kingsey Falls. Il s'agit d'un organisme à but non lucratif qui est reconnu dans sa région pour ses mosaïcultures. Ce parc s'étend sur 29 acres.
-Le Parc Marie-Victorin est devenu également en 2010 le premier jardin touristique à obtenir la plus haute distinction du programme « ICI, ON RECYCLE! » [1] pour ses actions à sensibiliser ses visiteurs et ses employés à la valorisation des matières potentiellement valorisables.
+Le Parc Marie-Victorin est devenu également en 2010 le premier jardin touristique à obtenir la plus haute distinction du programme « ICI, ON RECYCLE! »  pour ses actions à sensibiliser ses visiteurs et ses employés à la valorisation des matières potentiellement valorisables.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le projet est parti à la base de Normand Boisvert, alors président du Club Lion de Kingsey Falls, et de plusieurs autres membres de ce club. L'idée était de célébrer le centième anniversaire de la naissance de Frère Marie-Victorin (1885-1944), aussi nommé Conrad Kirouac. Ce dernier, botaniste et intellectuel originaire de Kingsey Falls, a notamment été le premier francophone à avoir été admis à la Société Royale des sciences du Canada. Ses valeurs premières étaient le respect de l’environnement et l’ouverture sur le monde. C’est à partir de ce constat qu'est venue l’idée de créer un jardin éducatif.
 Normand Hinse, alors horticulteur en chef du département Horticulture de Cascades, dessina le premier croquis. L’idée de départ est de créer un parc qui servirait de lieu de promenade à la population. Les frères Bernard, Laurent et Alain Lemaire offrirent leur parcelle de terrain située entre la rue Gibson et la rivière Nicolet pour y implanter le nouveau jardin. Les bénévoles impliqués dans le projet ont commencé les travaux aux abords de la rivière Nicolet en 1982.
 Normand Francoeur, alors horticulteur employé du Jardin botanique de Montréal, insista sur la mission éducative du nouveau parc, prenant exemple sur les valeurs du frère Marie-Victorin. Le belvédère fut alors construit et le projet se transformait peu à peu en site touristique botanique. Le projet a été orienté vers l’horticulture et prôna davantage l’éducation dans toutes les sphères des sciences naturelles et l’interprétation des différents écosystèmes en place dans le parc fut également instaurée. Les premiers arbres furent plantés en 1984 et l'inauguration officielle du parc si fait en août 1984.
-Le Parc Marie-Victorin continua à se construire avec les années, notamment lors d'un agrandissement de 3 à 29 acres. Le parc devient officiellement membre de l’Association touristique régionale du Cœur-du-Québec en 1986. La réalisation de différents projets, la conception de nouveaux programmes, l'arrivée de serres et de mosaïcultures, d'activités et de plusieurs autres idées composent aujourd'hui ce jardin éducatif[2].
+Le Parc Marie-Victorin continua à se construire avec les années, notamment lors d'un agrandissement de 3 à 29 acres. Le parc devient officiellement membre de l’Association touristique régionale du Cœur-du-Québec en 1986. La réalisation de différents projets, la conception de nouveaux programmes, l'arrivée de serres et de mosaïcultures, d'activités et de plusieurs autres idées composent aujourd'hui ce jardin éducatif.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Sa mission</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc a quatre missions: éduquer, étonner, faire participer et rassembler.
 La mission d'éduquer les visiteurs se base sur l'œuvre du Frère Marie-Victorin. Le parc priorise principalement la sensibilisation à la beauté de la nature, le développement des facultés d’observation et de respect des milieux naturels et l’adhésion aux principes du développement durable.
@@ -582,7 +598,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Parc Marie-Victorin a cinq sortes d'activités à l'année pour ses visiteurs. Elles servent à expliquer l'histoire du parc et à donner des informations sur la flore en général.
 Visites guidées de l'usine Cascade
@@ -623,7 +641,9 @@
           <t>Les jardins</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Serre tropicale
 La serre tropicale contient des plantes et des arbres fruitiers d'Amérique Centrale et d'Amérique du Sud. Des panneaux d'informations s'y trouvent afin d'informer à propos des recherches du Frère Marie-Victorin à Cuba.
@@ -667,7 +687,9 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs services sont proposés au Parc Marie-Victorin tel que des mariages ou des réceptions. Quelques salles sont disponibles à cet effet, un service de traiteur, et un service de bar. Des activités du parc peuvent être jumelées aux réunions. Les évènements corporatifs et les réunions du temps des fêtes peuvent également y avoir lieu. En toutes circonstances, la location des salles, le service de traiteurs et des services complémentaires sont disponibles pour ceux qui en font la demande.
 </t>
